--- a/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
+++ b/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B34" s="65">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
